--- a/pageElement/baidu/baidu_elements.xlsx
+++ b/pageElement/baidu/baidu_elements.xlsx
@@ -19,7 +19,7 @@
     <t>输入框-百度搜索框</t>
   </si>
   <si>
-    <t>(By.ID,'kw')</t>
+    <t>(By.ID,"kw")</t>
   </si>
   <si>
     <t>按钮-百度一下</t>
@@ -229,23 +229,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +266,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,30 +290,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,48 +314,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,13 +374,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,54 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,150 +557,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1023,7 +1024,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1036,7 +1037,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/pageElement/baidu/baidu_elements.xlsx
+++ b/pageElement/baidu/baidu_elements.xlsx
@@ -19,7 +19,7 @@
     <t>输入框-百度搜索框</t>
   </si>
   <si>
-    <t>(By.ID,"kw")</t>
+    <t>(By.ID,'kw')</t>
   </si>
   <si>
     <t>按钮-百度一下</t>
@@ -229,23 +229,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +266,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,30 +302,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,48 +314,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,6 +374,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,7 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,48 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,115 +569,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,13 +686,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
